--- a/team_specific_matrix/LIU_B.xlsx
+++ b/team_specific_matrix/LIU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2192691029900332</v>
+        <v>0.2186666666666667</v>
       </c>
       <c r="C2">
-        <v>0.5049833887043189</v>
+        <v>0.5093333333333333</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01661129568106312</v>
+        <v>0.024</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.006644518272425249</v>
+        <v>0.005333333333333333</v>
       </c>
       <c r="P2">
-        <v>0.1561461794019934</v>
+        <v>0.1493333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09634551495016612</v>
+        <v>0.09333333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C3">
-        <v>0.02515723270440252</v>
+        <v>0.025</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03773584905660377</v>
+        <v>0.045</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7547169811320755</v>
+        <v>0.755</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1823899371069182</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02564102564102564</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5897435897435898</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3846153846153846</v>
+        <v>0.3863636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1111111111111111</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007407407407407408</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2814814814814815</v>
+        <v>0.2696629213483146</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01481481481481482</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1259259259259259</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="R6">
-        <v>0.08888888888888889</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="S6">
-        <v>0.3703703703703703</v>
+        <v>0.3707865168539326</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08148148148148149</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02962962962962963</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03703703703703703</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1037037037037037</v>
+        <v>0.106508875739645</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01481481481481482</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2444444444444444</v>
+        <v>0.242603550295858</v>
       </c>
       <c r="R7">
-        <v>0.06666666666666667</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="S7">
-        <v>0.4222222222222222</v>
+        <v>0.3964497041420119</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1187845303867403</v>
+        <v>0.119815668202765</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02209944751381215</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04143646408839779</v>
+        <v>0.04377880184331797</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1104972375690608</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01933701657458563</v>
+        <v>0.02073732718894009</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2016574585635359</v>
+        <v>0.2027649769585254</v>
       </c>
       <c r="R8">
-        <v>0.0856353591160221</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="S8">
-        <v>0.4005524861878453</v>
+        <v>0.3940092165898618</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1092436974789916</v>
+        <v>0.1027397260273973</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008403361344537815</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07563025210084033</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1176470588235294</v>
+        <v>0.1027397260273973</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01680672268907563</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1848739495798319</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R9">
-        <v>0.1008403361344538</v>
+        <v>0.1027397260273973</v>
       </c>
       <c r="S9">
-        <v>0.3865546218487395</v>
+        <v>0.410958904109589</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1425891181988743</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02439024390243903</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007479431563201197</v>
       </c>
       <c r="F10">
-        <v>0.06285178236397748</v>
+        <v>0.06507105459985041</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1088180112570356</v>
+        <v>0.1084517576664173</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008442776735459663</v>
+        <v>0.008227374719521317</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2260787992495309</v>
+        <v>0.2318623784592371</v>
       </c>
       <c r="R10">
-        <v>0.0600375234521576</v>
+        <v>0.05833956619296934</v>
       </c>
       <c r="S10">
-        <v>0.3667917448405253</v>
+        <v>0.3649962602842184</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1644444444444444</v>
+        <v>0.1672597864768683</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1022222222222222</v>
+        <v>0.09608540925266904</v>
       </c>
       <c r="K11">
-        <v>0.2133333333333333</v>
+        <v>0.2206405693950178</v>
       </c>
       <c r="L11">
-        <v>0.5066666666666667</v>
+        <v>0.498220640569395</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01333333333333333</v>
+        <v>0.01779359430604982</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6694214876033058</v>
+        <v>0.6711409395973155</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.256198347107438</v>
+        <v>0.2483221476510067</v>
       </c>
       <c r="K12">
-        <v>0.008264462809917356</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="L12">
-        <v>0.03305785123966942</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03305785123966942</v>
+        <v>0.03355704697986577</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6428571428571429</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3214285714285715</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01234567901234568</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1975308641975309</v>
+        <v>0.1887755102040816</v>
       </c>
       <c r="I15">
-        <v>0.04938271604938271</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="J15">
-        <v>0.4444444444444444</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="K15">
-        <v>0.05555555555555555</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01851851851851852</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06790123456790123</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.154320987654321</v>
+        <v>0.1479591836734694</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01092896174863388</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1748633879781421</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="I16">
-        <v>0.07103825136612021</v>
+        <v>0.08</v>
       </c>
       <c r="J16">
-        <v>0.4863387978142076</v>
+        <v>0.5155555555555555</v>
       </c>
       <c r="K16">
-        <v>0.07103825136612021</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02185792349726776</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02185792349726776</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1420765027322404</v>
+        <v>0.1288888888888889</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01578947368421053</v>
+        <v>0.01452282157676349</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2078947368421053</v>
+        <v>0.2074688796680498</v>
       </c>
       <c r="I17">
-        <v>0.07368421052631578</v>
+        <v>0.06846473029045644</v>
       </c>
       <c r="J17">
-        <v>0.4578947368421052</v>
+        <v>0.45850622406639</v>
       </c>
       <c r="K17">
-        <v>0.0868421052631579</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01052631578947368</v>
+        <v>0.01037344398340249</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04736842105263158</v>
+        <v>0.05186721991701245</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1</v>
+        <v>0.09336099585062241</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02307692307692308</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1615384615384615</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="I18">
-        <v>0.05384615384615385</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="J18">
-        <v>0.5230769230769231</v>
+        <v>0.5126582278481012</v>
       </c>
       <c r="K18">
-        <v>0.08461538461538462</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02307692307692308</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06923076923076923</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06153846153846154</v>
+        <v>0.06962025316455696</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01162790697674419</v>
+        <v>0.01376936316695353</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2156448202959831</v>
+        <v>0.2091222030981067</v>
       </c>
       <c r="I19">
-        <v>0.06765327695560254</v>
+        <v>0.06368330464716007</v>
       </c>
       <c r="J19">
-        <v>0.3974630021141649</v>
+        <v>0.4079173838209983</v>
       </c>
       <c r="K19">
-        <v>0.113107822410148</v>
+        <v>0.1092943201376936</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01585623678646934</v>
+        <v>0.0189328743545611</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0824524312896406</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09619450317124736</v>
+        <v>0.09896729776247848</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/LIU_B.xlsx
+++ b/team_specific_matrix/LIU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2186666666666667</v>
+        <v>0.2238442822384428</v>
       </c>
       <c r="C2">
-        <v>0.5093333333333333</v>
+        <v>0.4987834549878346</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.024</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.005333333333333333</v>
+        <v>0.004866180048661801</v>
       </c>
       <c r="P2">
-        <v>0.1493333333333333</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09333333333333334</v>
+        <v>0.1046228710462287</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="C3">
-        <v>0.025</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.045</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.755</v>
+        <v>0.7581395348837209</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.17</v>
+        <v>0.172093023255814</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5681818181818182</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3863636363636364</v>
+        <v>0.3695652173913043</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09550561797752809</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01685393258426966</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01123595505617977</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2696629213483146</v>
+        <v>0.2789473684210526</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01123595505617977</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1348314606741573</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="R6">
-        <v>0.0898876404494382</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="S6">
-        <v>0.3707865168539326</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1005917159763314</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03550295857988166</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05325443786982249</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.106508875739645</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01183431952662722</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.242603550295858</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="R7">
-        <v>0.05325443786982249</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="S7">
-        <v>0.3964497041420119</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.119815668202765</v>
+        <v>0.1161290322580645</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0184331797235023</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04377880184331797</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1129032258064516</v>
+        <v>0.1204301075268817</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02073732718894009</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2027649769585254</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="R8">
-        <v>0.08755760368663594</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="S8">
-        <v>0.3940092165898618</v>
+        <v>0.3913978494623656</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1027397260273973</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00684931506849315</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0684931506849315</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1027397260273973</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0136986301369863</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1917808219178082</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="R9">
-        <v>0.1027397260273973</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="S9">
-        <v>0.410958904109589</v>
+        <v>0.4066666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1413612565445026</v>
+        <v>0.1446453407510431</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02094240837696335</v>
+        <v>0.02016689847009736</v>
       </c>
       <c r="E10">
-        <v>0.0007479431563201197</v>
+        <v>0.0006954102920723226</v>
       </c>
       <c r="F10">
-        <v>0.06507105459985041</v>
+        <v>0.06397774687065369</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1084517576664173</v>
+        <v>0.10778859527121</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008227374719521317</v>
+        <v>0.009040333796940195</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2318623784592371</v>
+        <v>0.2329624478442281</v>
       </c>
       <c r="R10">
-        <v>0.05833956619296934</v>
+        <v>0.05910987482614743</v>
       </c>
       <c r="S10">
-        <v>0.3649962602842184</v>
+        <v>0.3616133518776078</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1672597864768683</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09608540925266904</v>
+        <v>0.09477124183006536</v>
       </c>
       <c r="K11">
-        <v>0.2206405693950178</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L11">
-        <v>0.498220640569395</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01779359430604982</v>
+        <v>0.01633986928104575</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6711409395973155</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2483221476510067</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K12">
-        <v>0.01342281879194631</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="L12">
-        <v>0.03355704697986577</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03355704697986577</v>
+        <v>0.0308641975308642</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3055555555555556</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01020408163265306</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1887755102040816</v>
+        <v>0.1913875598086124</v>
       </c>
       <c r="I15">
-        <v>0.05612244897959184</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J15">
-        <v>0.4489795918367347</v>
+        <v>0.4449760765550239</v>
       </c>
       <c r="K15">
-        <v>0.06122448979591837</v>
+        <v>0.06220095693779904</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01530612244897959</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07142857142857142</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1479591836734694</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008888888888888889</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1555555555555556</v>
+        <v>0.1522633744855967</v>
       </c>
       <c r="I16">
-        <v>0.08</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="J16">
-        <v>0.5155555555555555</v>
+        <v>0.5102880658436214</v>
       </c>
       <c r="K16">
-        <v>0.07111111111111111</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02222222222222222</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01777777777777778</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1288888888888889</v>
+        <v>0.1358024691358025</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01452282157676349</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2074688796680498</v>
+        <v>0.2007722007722008</v>
       </c>
       <c r="I17">
-        <v>0.06846473029045644</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="J17">
-        <v>0.45850622406639</v>
+        <v>0.4555984555984556</v>
       </c>
       <c r="K17">
-        <v>0.0954356846473029</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01037344398340249</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05186721991701245</v>
+        <v>0.05598455598455598</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09336099585062241</v>
+        <v>0.1003861003861004</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0189873417721519</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1582278481012658</v>
+        <v>0.1695906432748538</v>
       </c>
       <c r="I18">
-        <v>0.06329113924050633</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="J18">
-        <v>0.5126582278481012</v>
+        <v>0.4970760233918128</v>
       </c>
       <c r="K18">
-        <v>0.08227848101265822</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0189873417721519</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0759493670886076</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06962025316455696</v>
+        <v>0.07602339181286549</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01376936316695353</v>
+        <v>0.01431980906921241</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2091222030981067</v>
+        <v>0.2084327764518695</v>
       </c>
       <c r="I19">
-        <v>0.06368330464716007</v>
+        <v>0.06046141607000795</v>
       </c>
       <c r="J19">
-        <v>0.4079173838209983</v>
+        <v>0.4073190135242641</v>
       </c>
       <c r="K19">
-        <v>0.1092943201376936</v>
+        <v>0.1089896579156722</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0189328743545611</v>
+        <v>0.01988862370723946</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0783132530120482</v>
+        <v>0.07637231503579953</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09896729776247848</v>
+        <v>0.1042163882259348</v>
       </c>
     </row>
   </sheetData>
